--- a/Excel/AnimatorControllerConfig.xlsx
+++ b/Excel/AnimatorControllerConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD338FB5-8743-4A80-9AB5-BB8AB008FAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA488B1-7065-45A8-A0DF-B429EF6D5401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1395" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="1095" yWindow="1005" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>// None = 0,Carried =1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>覆盖的动画控制器名字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,7 +79,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Tool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// None = 0,Carried =1,Water = 2, Hoe = 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Arm_Hold.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm_Water.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool_Hoe.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_Water.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair_Water.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool_Water.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
-  <dimension ref="C1:K28"/>
+  <dimension ref="C1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,7 +528,7 @@
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
@@ -497,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -516,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -554,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -573,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -582,10 +627,18 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -593,10 +646,18 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -604,10 +665,18 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -615,10 +684,18 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -626,10 +703,18 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -637,10 +722,18 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -648,10 +741,18 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -659,10 +760,18 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -812,6 +921,17 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/AnimatorControllerConfig.xlsx
+++ b/Excel/AnimatorControllerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA488B1-7065-45A8-A0DF-B429EF6D5401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1197A-0200-4D42-9F77-39142C80CF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1005" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="2640" yWindow="1920" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>// None = 0,Carried =1,Water = 2, Hoe = 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Arm_Hold.overrideController</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -128,6 +124,22 @@
   </si>
   <si>
     <t>Tool_Water.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// None = 0,Carried =1,Water = 2, Hoe = 3,Collect=4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm_Collect.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_Collect.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair_Collect.overrideController</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
-  <dimension ref="C1:K29"/>
+  <dimension ref="C1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,7 +540,7 @@
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
@@ -618,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -637,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -650,13 +662,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -672,10 +684,10 @@
         <v>11</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -688,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -707,13 +719,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -726,13 +738,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -745,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -764,13 +776,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -779,10 +791,18 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -790,10 +810,18 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -801,10 +829,18 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -932,6 +968,34 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/AnimatorControllerConfig.xlsx
+++ b/Excel/AnimatorControllerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1197A-0200-4D42-9F77-39142C80CF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE898C1-BF7A-4991-A9B9-62043DA8856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1920" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="1110" yWindow="1335" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>// None = 0,Carried =1,Water = 2, Hoe = 3,Collect=4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Arm_Collect.overrideController</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -140,6 +136,22 @@
   </si>
   <si>
     <t>Hair_Collect.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// None = 0,Carried =1,Water = 2, Hoe = 3,Collect=4,Reap=5,Chop=6,Pickaxe=7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool_Reap.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool_Chop.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool_Pickaxe.overrideController</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
-  <dimension ref="C1:K32"/>
+  <dimension ref="C1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -540,7 +552,7 @@
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.2">
@@ -668,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -738,13 +750,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -757,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -776,13 +788,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -795,13 +807,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -814,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -833,13 +845,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -848,10 +860,18 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -859,10 +879,18 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -870,10 +898,18 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -995,6 +1031,39 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel/AnimatorControllerConfig.xlsx
+++ b/Excel/AnimatorControllerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE898C1-BF7A-4991-A9B9-62043DA8856E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CEF81C-006C-47B4-9402-57A2A4271500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1335" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="1695" yWindow="2130" windowWidth="22275" windowHeight="12300" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>Tool_Pickaxe.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm_Reap.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_Reap.overrideController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair_Reap.overrideController</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
-  <dimension ref="C1:K35"/>
+  <dimension ref="C1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,13 +705,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -715,10 +727,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -734,10 +746,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -753,10 +765,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -772,10 +784,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -791,10 +803,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -807,13 +819,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -829,10 +841,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -848,10 +860,10 @@
         <v>16</v>
       </c>
       <c r="E18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -864,13 +876,13 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -883,13 +895,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -905,10 +917,10 @@
         <v>17</v>
       </c>
       <c r="E21" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -917,10 +929,18 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="2">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -928,10 +948,18 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="2">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -939,10 +967,18 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="2">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1064,6 +1100,28 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
